--- a/algieba/test/function_test.xlsx
+++ b/algieba/test/function_test.xlsx
@@ -1040,39 +1040,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>accounts: {
-  account_type: 'income',
-  date: '1000-01-01',
-  content: 'システムテスト用データ',
-  category: 'システムテスト',
-  price: 100
-}</t>
-    <rPh sb="79" eb="80">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>account_type=income</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>content=システムテスト用データ</t>
-    <rPh sb="15" eb="16">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>category=システムテスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>price=100</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>account_type=expense&amp;category=システムテスト</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1094,27 +1066,6 @@
     <rPh sb="56" eb="59">
       <t>コウシンゴ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>condition: {
-  content: 'システムテスト用データ'
-}
-with: {
-  price: 10000
-}</t>
-    <rPh sb="32" eb="33">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>condition: {
-  category: 'システムテスト'
-}
-with: {
-  account_type: 'expense'
-}</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1159,15 +1110,6 @@
   </si>
   <si>
     <t>condition: {
-  category: 'システムテスト'
-}
-with: {
-  date: '1000-01-02'
-}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>condition: {
   account_type: 'income'
 }
 with: {
@@ -1210,17 +1152,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>content: 'システムテスト用データ'</t>
-    <rPh sb="17" eb="18">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>category: 'システムテスト'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>price: 100</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1270,20 +1201,6 @@
   </si>
   <si>
     <t>interval=monthly</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>status: created
-body: {
-  account_type: 'income',
-  date: '1000-01-01',
-  content: 'システムテスト用データ',
-  category: 'システムテスト',
-  price: 100
-}</t>
-    <rPh sb="91" eb="92">
-      <t>ヨウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1322,53 +1239,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>accounts: {
-  date: '1000-01-01',
-  content: 'システムテスト用データ',
-  category: 'システムテスト',
-  price: 100
-}</t>
-    <rPh sb="53" eb="54">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>accounts: {
-  account_type: 'income',
-  content: 'システムテスト用データ',
-  category: 'システムテスト',
-  price: 100
-}</t>
-    <rPh sb="57" eb="58">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>accounts: {
-  account_type: 'income', 
-  date: '1000-01-01',
-  content: 'システムテスト用データ',
-  category: 'システムテスト',
-}</t>
-    <rPh sb="80" eb="81">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>accounts: {
-  account_type: 'income',
-  content: 'システムテスト用データ',
-  category: 'システムテスト',
-}</t>
-    <rPh sb="50" eb="61">
-      <t>システム</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>accounts:{}</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1378,45 +1248,6 @@
   </si>
   <si>
     <t>/accounts</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>accounts: {
-  account_type: 'invalid_type',
-  date: '1000-01-01',
-  content: 'システムテスト用データ',
-  category: 'システムテスト',
-  price: 100
-}</t>
-    <rPh sb="78" eb="89">
-      <t>システム</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>accounts: {
-  account_type: 'expense',
-  date: 'invalid_date',
-  content: 'システムテスト用データ',
-  category: 'システムテスト',
-  price: 100
-}</t>
-    <rPh sb="75" eb="86">
-      <t>システムテ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>accounts: {
-  account_type: 'expense',
-  date: '1000-01-01',
-  content: 'システムテスト用データ',
-  category: 'システムテスト',
-  price: 'invalid_price'
-}</t>
-    <rPh sb="73" eb="84">
-      <t>システム</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1510,10 +1341,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>category: 'システムテスト', price: 'invalid_price'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/settlement</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1536,44 +1363,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>accounts: {
-  account_type: 'invalid_type',
-  date: '1000-01-01',
-  content: 'システムテスト用データ',
-  category: 'システムテスト',
-  price: 'invalid_price'
-}</t>
-    <rPh sb="78" eb="89">
-      <t>システム</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>date=1000-01-01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>accounts: {
-  account_type: 'income',
-  date: '1000-01-01',
-  category: 'システムテスト用データ',
-  price: 100
-}</t>
-    <rPh sb="80" eb="81">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>accounts: {
-  account_type: 'income',
-  date: '1000-01-01',
-  content: 'システムテスト用データ',
-  price: 100
-}</t>
-    <rPh sb="72" eb="83">
-      <t>システム</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1736,6 +1526,309 @@
 body: [
   {error_code: absent_param_interval}
 ]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>accounts: {
+  account_type: 'income',
+  date: '1000-01-01',
+  content: '機能テスト用データ',
+  category: '機能テスト',
+  price: 100
+}</t>
+    <rPh sb="72" eb="74">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>status: created
+body: {
+  account_type: 'income',
+  date: '1000-01-01',
+  content: '機能テスト用データ',
+  category: '機能テスト',
+  price: 100
+}</t>
+    <rPh sb="84" eb="86">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>content=機能テスト用データ</t>
+    <rPh sb="8" eb="10">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>category=機能テスト</t>
+    <rPh sb="9" eb="11">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account_type=expense&amp;category=機能テスト</t>
+    <rPh sb="30" eb="32">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>condition: {
+  content: '機能テスト用データ'
+}
+with: {
+  price: 10000
+}</t>
+    <rPh sb="25" eb="27">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>condition: {
+  category: '機能テスト'
+}
+with: {
+  account_type: 'expense'
+}</t>
+    <rPh sb="26" eb="28">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>condition: {
+  category: '機能テスト'
+}
+with: {
+  date: '1000-01-02'
+}</t>
+    <rPh sb="26" eb="28">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>content: '機能テスト用データ'</t>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>category: '機能テスト'</t>
+    <rPh sb="11" eb="13">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>accounts: {
+  date: '1000-01-01',
+  content: '機能テスト用データ',
+  category: '機能テスト',
+  price: 100
+}</t>
+    <rPh sb="46" eb="48">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>accounts: {
+  account_type: 'income',
+  content: '機能テスト用データ',
+  category: '機能テスト',
+  price: 100
+}</t>
+    <rPh sb="50" eb="52">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>accounts: {
+  account_type: 'income',
+  date: '1000-01-01',
+  category: '機能テスト用データ',
+  price: 100
+}</t>
+    <rPh sb="73" eb="75">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>accounts: {
+  account_type: 'income',
+  date: '1000-01-01',
+  content: '機能テスト用データ',
+  price: 100
+}</t>
+    <rPh sb="72" eb="74">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="74" eb="81">
+      <t>システム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>accounts: {
+  account_type: 'income', 
+  date: '1000-01-01',
+  content: '機能テスト用データ',
+  category: '機能テスト',
+}</t>
+    <rPh sb="73" eb="75">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>accounts: {
+  account_type: 'income',
+  content: '機能テスト用データ',
+  category: '機能テスト',
+}</t>
+    <rPh sb="50" eb="52">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="52" eb="59">
+      <t>システム</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>accounts: {
+  account_type: 'invalid_type',
+  date: '1000-01-01',
+  content: '機能テスト用データ',
+  category: '機能テスト',
+  price: 100
+}</t>
+    <rPh sb="78" eb="80">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="80" eb="87">
+      <t>システム</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>accounts: {
+  account_type: 'expense',
+  date: 'invalid_date',
+  content: '機能テスト用データ',
+  category: '機能テスト',
+  price: 100
+}</t>
+    <rPh sb="75" eb="77">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="77" eb="84">
+      <t>システムテ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>accounts: {
+  account_type: 'expense',
+  date: '1000-01-01',
+  content: '機能テスト用データ',
+  category: '機能テスト',
+  price: 'invalid_price'
+}</t>
+    <rPh sb="73" eb="75">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="75" eb="82">
+      <t>システム</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>accounts: {
+  account_type: 'invalid_type',
+  date: '1000-01-01',
+  content: '機能テスト用データ',
+  category: '機能テスト',
+  price: 'invalid_price'
+}</t>
+    <rPh sb="78" eb="80">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="80" eb="87">
+      <t>システム</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>category: '機能テスト', price: 'invalid_price'</t>
+    <rPh sb="11" eb="13">
+      <t>キノウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2906,8 +2999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2961,10 +3054,10 @@
         <v>53</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="H3" s="49" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="31">
@@ -2981,13 +3074,13 @@
         <v>79</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G4" s="34" t="s">
         <v>80</v>
       </c>
       <c r="H4" s="45" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="31">
@@ -3004,13 +3097,13 @@
         <v>76</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>53</v>
       </c>
       <c r="H5" s="50" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="31">
@@ -3027,13 +3120,13 @@
         <v>76</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>93</v>
+        <v>165</v>
       </c>
       <c r="G6" s="29" t="s">
         <v>53</v>
       </c>
       <c r="H6" s="45" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="31">
@@ -3050,13 +3143,13 @@
         <v>76</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>53</v>
       </c>
       <c r="H7" s="45" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="31">
@@ -3073,13 +3166,13 @@
         <v>76</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G8" s="29" t="s">
         <v>53</v>
       </c>
       <c r="H8" s="45" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="31">
@@ -3096,13 +3189,13 @@
         <v>76</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="G9" s="30" t="s">
         <v>53</v>
       </c>
       <c r="H9" s="45" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="31">
@@ -3125,7 +3218,7 @@
         <v>54</v>
       </c>
       <c r="H10" s="45" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="83">
@@ -3145,10 +3238,10 @@
         <v>53</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H11" s="45" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="83">
@@ -3168,10 +3261,10 @@
         <v>56</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H12" s="45" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="83">
@@ -3191,10 +3284,10 @@
         <v>53</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="H13" s="45" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="83">
@@ -3214,10 +3307,10 @@
         <v>56</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="H14" s="45" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="83">
@@ -3237,10 +3330,10 @@
         <v>53</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H15" s="45" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="96">
@@ -3260,10 +3353,10 @@
         <v>57</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H16" s="45" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="44">
@@ -3283,10 +3376,10 @@
         <v>53</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H17" s="45" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="83">
@@ -3306,10 +3399,10 @@
         <v>53</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H18" s="47" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="83">
@@ -3329,10 +3422,10 @@
         <v>56</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="H19" s="47" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="83">
@@ -3352,10 +3445,10 @@
         <v>53</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="H20" s="47" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="83">
@@ -3375,10 +3468,10 @@
         <v>53</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H21" s="47" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="96">
@@ -3398,10 +3491,10 @@
         <v>53</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="H22" s="47" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="57">
@@ -3421,10 +3514,10 @@
         <v>58</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H23" s="47" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="2:8">
@@ -3444,10 +3537,10 @@
         <v>53</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H24" s="47" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="2:8">
@@ -3467,10 +3560,10 @@
         <v>53</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H25" s="47" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="2:8">
@@ -3490,10 +3583,10 @@
         <v>53</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="H26" s="47" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="2:8">
@@ -3513,10 +3606,10 @@
         <v>59</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="H27" s="47" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="2:8">
@@ -3536,10 +3629,10 @@
         <v>60</v>
       </c>
       <c r="G28" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="47" t="s">
         <v>113</v>
-      </c>
-      <c r="H28" s="47" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="29" spans="2:8">
@@ -3559,10 +3652,10 @@
         <v>53</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="H29" s="47" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="2:8">
@@ -3582,10 +3675,10 @@
         <v>63</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="H30" s="47" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="31">
@@ -3596,19 +3689,19 @@
         <v>6</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E31" s="30" t="s">
         <v>61</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="G31" s="30" t="s">
         <v>64</v>
       </c>
       <c r="H31" s="47" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="31">
@@ -3619,19 +3712,19 @@
         <v>6</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E32" s="30" t="s">
         <v>61</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="G32" s="30" t="s">
         <v>53</v>
       </c>
       <c r="H32" s="47" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="32" thickBot="1">
@@ -3654,7 +3747,7 @@
         <v>53</v>
       </c>
       <c r="H33" s="51" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3673,7 +3766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -3727,10 +3820,10 @@
         <v>53</v>
       </c>
       <c r="G3" s="48" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="H3" s="44" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="83">
@@ -3750,10 +3843,10 @@
         <v>53</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="H4" s="45" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="83">
@@ -3773,10 +3866,10 @@
         <v>69</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="H5" s="46" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="83">
@@ -3796,10 +3889,10 @@
         <v>53</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="H6" s="46" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="83">
@@ -3819,10 +3912,10 @@
         <v>53</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c r="H7" s="46" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="70">
@@ -3842,10 +3935,10 @@
         <v>53</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="H8" s="46" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="109">
@@ -3865,10 +3958,10 @@
         <v>70</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="H9" s="46" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="57">
@@ -3876,22 +3969,22 @@
         <v>8</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="H10" s="46" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="96">
@@ -3911,10 +4004,10 @@
         <v>53</v>
       </c>
       <c r="G11" s="43" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="H11" s="45" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="96">
@@ -3934,10 +4027,10 @@
         <v>71</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="H12" s="45" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="96">
@@ -3957,10 +4050,10 @@
         <v>70</v>
       </c>
       <c r="G13" s="43" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="H13" s="45" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="96">
@@ -3980,10 +4073,10 @@
         <v>72</v>
       </c>
       <c r="G14" s="43" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="H14" s="45" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="57">
@@ -4000,13 +4093,13 @@
         <v>76</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="G15" s="36" t="s">
         <v>53</v>
       </c>
       <c r="H15" s="45" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="57">
@@ -4023,13 +4116,13 @@
         <v>76</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="G16" s="36" t="s">
         <v>73</v>
       </c>
       <c r="H16" s="45" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="57">
@@ -4046,13 +4139,13 @@
         <v>76</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="G17" s="36" t="s">
         <v>53</v>
       </c>
       <c r="H17" s="45" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="83">
@@ -4072,10 +4165,10 @@
         <v>53</v>
       </c>
       <c r="G18" s="43" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="H18" s="45" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="83">
@@ -4095,10 +4188,10 @@
         <v>74</v>
       </c>
       <c r="G19" s="43" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="H19" s="45" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="83">
@@ -4118,10 +4211,10 @@
         <v>75</v>
       </c>
       <c r="G20" s="43" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="H20" s="45" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="57">
@@ -4141,10 +4234,10 @@
         <v>53</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="H21" s="45" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="57">
@@ -4164,10 +4257,10 @@
         <v>53</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="H22" s="45" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="57">
@@ -4187,10 +4280,10 @@
         <v>53</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="H23" s="45" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="57">
@@ -4210,10 +4303,10 @@
         <v>70</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="H24" s="45" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="57">
@@ -4221,22 +4314,22 @@
         <v>23</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="H25" s="45" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="57">
@@ -4256,10 +4349,10 @@
         <v>53</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="H26" s="45" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="57">
@@ -4279,10 +4372,10 @@
         <v>53</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="H27" s="45" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="57">
@@ -4302,10 +4395,10 @@
         <v>53</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="H28" s="45" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="57">
@@ -4313,22 +4406,22 @@
         <v>27</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>49</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="F29" s="37" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="G29" s="37" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="H29" s="47" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="58" thickBot="1">
@@ -4339,7 +4432,7 @@
         <v>6</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="E30" s="37" t="s">
         <v>61</v>
@@ -4351,7 +4444,7 @@
         <v>53</v>
       </c>
       <c r="H30" s="47" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="2:8">

--- a/algieba/test/function_test.xlsx
+++ b/algieba/test/function_test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="179">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -1421,82 +1421,7 @@
   <si>
     <t>status: bad_request
 body: [
-  {error_code: absent_param_account_type},
-  {error_code: absent_param_date},
-  {error_code: absent_param_content},
-  {error_code: absent_param_category},
-  {error_code: absent_param_price}
-]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>status: bad_request
-body: [
   {error_code: absent_param_accounts}
-]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>status: bad_request
-body: [
-  {error_code: invalid_value_account_type}
-]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>status: bad_request
-body: [
-  {error_code: invalid_value_date}
-]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>status: bad_request
-body: [
-  {error_code: invalid_value_price}
-]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>status: bad_request
-body: [
-  {error_code: invalid_value_account_type},
-  {error_code: invalid_value_price}
-]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>status: bad_request
-body: [
-  {error_code: invalid_value_date}
-]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>status: bad_request
-body: [
-  {error_code: invalid_value_price}
-]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>status: bad_request
-body: [
-  {error_code: invalid_value_account_type}
-]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>status: bad_request
-body: [
-  {error_code: invalid_value_account_type}
-]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>status: bad_request
-body: [
-  {error_code: invalid_value_with},
 ]</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1504,20 +1429,6 @@
     <t>status: bad_request
 body: [
   {error_code: absent_param_with}
-]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>status: bad_request
-body: [
-  {error_code: invalid_value_account_type}
-]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>status: bad_request
-body: [
-  {error_code: invalid_value_interval}
 ]</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1829,6 +1740,56 @@
     <rPh sb="11" eb="13">
       <t>キノウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>status: bad_request
+body: [
+  {error_code: absent_param_accounts}
+]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>status: bad_request
+body: [
+  {error_code: absent_param_with},
+]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>status: bad_request
+body: [
+  {error_code: invalid_param_account_type}
+]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>status: bad_request
+body: [
+  {error_code: invalid_param_date}
+]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>status: bad_request
+body: [
+  {error_code: invalid_param_price}
+]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>status: bad_request
+body: [
+  {error_code: invalid_param_account_type},
+  {error_code: invalid_param_price}
+]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>status: bad_request
+body: [
+  {error_code: invalid_param_interval}
+]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3054,10 +3015,10 @@
         <v>53</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="H3" s="49" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="31">
@@ -3120,7 +3081,7 @@
         <v>76</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="G6" s="29" t="s">
         <v>53</v>
@@ -3143,7 +3104,7 @@
         <v>76</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>53</v>
@@ -3189,7 +3150,7 @@
         <v>76</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="G9" s="30" t="s">
         <v>53</v>
@@ -3284,7 +3245,7 @@
         <v>53</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="H13" s="45" t="s">
         <v>112</v>
@@ -3307,7 +3268,7 @@
         <v>56</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="H14" s="45" t="s">
         <v>112</v>
@@ -3422,7 +3383,7 @@
         <v>56</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="H19" s="47" t="s">
         <v>112</v>
@@ -3583,7 +3544,7 @@
         <v>53</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="H26" s="47" t="s">
         <v>113</v>
@@ -3606,7 +3567,7 @@
         <v>59</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="H27" s="47" t="s">
         <v>113</v>
@@ -3766,8 +3727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -3820,7 +3781,7 @@
         <v>53</v>
       </c>
       <c r="G3" s="48" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="H3" s="44" t="s">
         <v>142</v>
@@ -3843,7 +3804,7 @@
         <v>53</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="H4" s="45" t="s">
         <v>143</v>
@@ -3866,7 +3827,7 @@
         <v>69</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="H5" s="46" t="s">
         <v>144</v>
@@ -3889,7 +3850,7 @@
         <v>53</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="H6" s="46" t="s">
         <v>145</v>
@@ -3912,7 +3873,7 @@
         <v>53</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="H7" s="46" t="s">
         <v>146</v>
@@ -3935,13 +3896,13 @@
         <v>53</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="H8" s="46" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="109">
+    <row r="9" spans="2:8" ht="57">
       <c r="B9" s="21">
         <v>7</v>
       </c>
@@ -3961,7 +3922,7 @@
         <v>116</v>
       </c>
       <c r="H9" s="46" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="57">
@@ -3984,7 +3945,7 @@
         <v>106</v>
       </c>
       <c r="H10" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="96">
@@ -4004,10 +3965,10 @@
         <v>53</v>
       </c>
       <c r="G11" s="43" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="H11" s="45" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="96">
@@ -4027,10 +3988,10 @@
         <v>71</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="H12" s="45" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="96">
@@ -4050,10 +4011,10 @@
         <v>70</v>
       </c>
       <c r="G13" s="43" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H13" s="45" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="96">
@@ -4073,10 +4034,10 @@
         <v>72</v>
       </c>
       <c r="G14" s="43" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="H14" s="45" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="57">
@@ -4099,7 +4060,7 @@
         <v>53</v>
       </c>
       <c r="H15" s="45" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="57">
@@ -4122,7 +4083,7 @@
         <v>73</v>
       </c>
       <c r="H16" s="45" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="57">
@@ -4145,7 +4106,7 @@
         <v>53</v>
       </c>
       <c r="H17" s="45" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="83">
@@ -4168,7 +4129,7 @@
         <v>122</v>
       </c>
       <c r="H18" s="45" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="83">
@@ -4191,7 +4152,7 @@
         <v>123</v>
       </c>
       <c r="H19" s="45" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="83">
@@ -4214,7 +4175,7 @@
         <v>141</v>
       </c>
       <c r="H20" s="45" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="57">
@@ -4237,7 +4198,7 @@
         <v>124</v>
       </c>
       <c r="H21" s="45" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="57">
@@ -4260,7 +4221,7 @@
         <v>125</v>
       </c>
       <c r="H22" s="45" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="57">
@@ -4283,7 +4244,7 @@
         <v>126</v>
       </c>
       <c r="H23" s="45" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="57">
@@ -4306,7 +4267,7 @@
         <v>127</v>
       </c>
       <c r="H24" s="45" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="57">
@@ -4329,7 +4290,7 @@
         <v>132</v>
       </c>
       <c r="H25" s="45" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="57">
@@ -4352,7 +4313,7 @@
         <v>134</v>
       </c>
       <c r="H26" s="45" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="57">
@@ -4375,7 +4336,7 @@
         <v>135</v>
       </c>
       <c r="H27" s="45" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="57">
@@ -4395,10 +4356,10 @@
         <v>53</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="H28" s="45" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="57">
@@ -4421,7 +4382,7 @@
         <v>138</v>
       </c>
       <c r="H29" s="47" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="58" thickBot="1">
@@ -4444,7 +4405,7 @@
         <v>53</v>
       </c>
       <c r="H30" s="47" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="2:8">

--- a/algieba/test/function_test.xlsx
+++ b/algieba/test/function_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15780" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="正常系" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="173">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -48,413 +48,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>家計簿を登録</t>
-    <rPh sb="0" eb="3">
-      <t>カケイボ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1.0.0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>家計簿を検索（組み合わせ条件）</t>
-    <rPh sb="0" eb="3">
-      <t>カケイボ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジョウケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>家計簿を検索（条件なし）</t>
-    <rPh sb="0" eb="3">
-      <t>カケイボ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジョウケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>家計簿を検索（日付指定）</t>
-    <rPh sb="7" eb="9">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>家計簿を検索（内容指定）</t>
-    <rPh sb="0" eb="3">
-      <t>カケイボ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>家計簿を検索（カテゴリ指定）</t>
-    <rPh sb="0" eb="3">
-      <t>カケイボ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>家計簿を検索（金額指定）</t>
-    <rPh sb="0" eb="3">
-      <t>カケイボ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キンガク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>家計簿を更新（日付条件指定）</t>
-    <rPh sb="0" eb="3">
-      <t>カケイボ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>家計簿を更新（内容条件指定）</t>
-    <rPh sb="0" eb="3">
-      <t>カケイボ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>家計簿を更新（カテゴリ条件指定）</t>
-    <rPh sb="0" eb="3">
-      <t>カケイボ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>家計簿を更新（金額条件指定）</t>
-    <rPh sb="0" eb="3">
-      <t>カケイボ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キンガク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>家計簿を更新（組み合わせ条件指定）</t>
-    <rPh sb="0" eb="3">
-      <t>カケイボ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>家計簿を更新（条件なし）</t>
-    <rPh sb="0" eb="3">
-      <t>カケイボ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジョウケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>家計簿を更新（更新後の日付指定）</t>
-    <rPh sb="0" eb="3">
-      <t>カケイボ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>コウシンゴ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>家計簿を更新（更新後の内容指定）</t>
-    <rPh sb="0" eb="3">
-      <t>カケイボ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>家計簿を更新（更新後のカテゴリ指定）</t>
-    <rPh sb="0" eb="3">
-      <t>カケイボ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>コウシンゴ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>家計簿を更新（更新後の金額指定）</t>
-    <rPh sb="0" eb="3">
-      <t>カケイボ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>コウシンゴ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キンガク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>家計簿を削除（日付指定）</t>
-    <rPh sb="0" eb="3">
-      <t>カケイボ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>家計簿を削除（内容指定）</t>
-    <rPh sb="0" eb="3">
-      <t>カケイボ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>家計簿を更新（更新後の値を複数指定）</t>
-    <rPh sb="0" eb="3">
-      <t>カケイボ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>コウシンゴ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="13" eb="17">
-      <t>フクスウシテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>家計簿を削除（カテゴリ指定）</t>
-    <rPh sb="0" eb="3">
-      <t>カケイボ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>家計簿を削除（金額指定）</t>
-    <rPh sb="0" eb="3">
-      <t>カケイボ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キンガク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>家計簿を削除（組み合わせ条件）</t>
-    <rPh sb="0" eb="3">
-      <t>カケイボ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジョウケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>家計簿を削除（条件なし）</t>
-    <rPh sb="0" eb="3">
-      <t>カケイボ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジョウケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>収支を見る（日次指定）</t>
-    <rPh sb="0" eb="2">
-      <t>シュウシ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シテイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -742,10 +336,62 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Body</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/settlement</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Path</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Query</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Body</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -778,150 +424,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>/accounts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.0.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/settlement</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/settlement</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>period=daily</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Path</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Query</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Body</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/accounts</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.0.0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>家計簿を検索（種類指定）</t>
-    <rPh sb="0" eb="3">
-      <t>カケイボ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>シュルイシテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/accounts</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>家計簿を更新（種類条件指定）</t>
-    <rPh sb="0" eb="3">
-      <t>カケイボ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>家計簿を更新（更新後の種類指定）</t>
-    <rPh sb="0" eb="3">
-      <t>カケイボ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>コウシンゴ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>家計簿を削除（種類指定）</t>
-    <rPh sb="0" eb="3">
-      <t>カケイボ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シテイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1161,38 +672,6 @@
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>収支を見る（年次指定）</t>
-    <rPh sb="0" eb="2">
-      <t>シュウシ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ゲツジシテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>収支を見る（月次指定）</t>
-    <rPh sb="0" eb="2">
-      <t>シュウシ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>シュウジシテイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1790,6 +1269,140 @@
 body: [
   {error_code: invalid_param_interval}
 ]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト対象</t>
+    <rPh sb="3" eb="5">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Controller</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Controller</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.0.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>interval=daily</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Method</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Accounts#create</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Accounts#read</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Accounts#read</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Accounts#read</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Accounts#update</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Accounts#delete</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Accounts#delete</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Accounts#settle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Accounts#settle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Accounts#register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.1.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Controller</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>status: ok</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.1.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力欄が表示されている</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を表示するテーブルが表示されている</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1846,7 +1459,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1944,21 +1557,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -1987,21 +1585,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -2041,17 +1624,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -2433,7 +2005,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2442,142 +2014,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2958,19 +2539,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H33"/>
+  <dimension ref="B1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3.1640625" customWidth="1"/>
-    <col min="4" max="4" width="47.1640625" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" customWidth="1"/>
-    <col min="6" max="6" width="40.1640625" customWidth="1"/>
-    <col min="7" max="7" width="44.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="6" max="7" width="40.1640625" customWidth="1"/>
     <col min="8" max="8" width="47.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2982,734 +2562,812 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>52</v>
+      <c r="D2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="109">
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="31">
+      <c r="B4" s="11">
+        <v>2</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="H3" s="49" t="s">
+    </row>
+    <row r="5" spans="2:8" ht="31">
+      <c r="B5" s="9">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="49" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" ht="31">
-      <c r="B4" s="13">
-        <v>2</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="F5" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="31">
+      <c r="B6" s="11">
+        <v>4</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="31">
+      <c r="B7" s="9">
+        <v>5</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="31">
+      <c r="B8" s="11">
+        <v>6</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="31">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="31">
+      <c r="B10" s="11">
+        <v>8</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="83">
+      <c r="B11" s="9">
+        <v>9</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="15" t="s">
+    </row>
+    <row r="12" spans="2:8" ht="83">
+      <c r="B12" s="11">
+        <v>10</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="83">
+      <c r="B13" s="9">
+        <v>11</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" s="39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="83">
+      <c r="B14" s="11">
+        <v>12</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" s="39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="83">
+      <c r="B15" s="9">
+        <v>13</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="96">
+      <c r="B16" s="11">
+        <v>14</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="44">
+      <c r="B17" s="9">
+        <v>15</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="83">
+      <c r="B18" s="11">
+        <v>16</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="83">
+      <c r="B19" s="9">
+        <v>17</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" s="41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="83">
+      <c r="B20" s="11">
+        <v>18</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="83">
+      <c r="B21" s="9">
+        <v>19</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="96">
+      <c r="B22" s="11">
+        <v>20</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="57">
+      <c r="B23" s="9">
+        <v>21</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="11">
+        <v>22</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="15" t="s">
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="9">
+        <v>23</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="11">
+        <v>24</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="H26" s="41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="9">
+        <v>25</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="H27" s="41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="11">
+        <v>26</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" s="41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="9">
+        <v>27</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" s="41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="11">
+        <v>28</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="34" t="s">
+    </row>
+    <row r="31" spans="2:8" ht="31">
+      <c r="B31" s="9">
+        <v>29</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="H4" s="45" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="31">
-      <c r="B5" s="10">
-        <v>3</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="50" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="31">
-      <c r="B6" s="13">
-        <v>4</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="45" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="31">
-      <c r="B7" s="10">
-        <v>5</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="45" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="31">
-      <c r="B8" s="13">
-        <v>6</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="45" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="31">
-      <c r="B9" s="10">
-        <v>7</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="45" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="31">
-      <c r="B10" s="13">
-        <v>8</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="45" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="83">
-      <c r="B11" s="10">
-        <v>9</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="H11" s="45" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="83">
-      <c r="B12" s="13">
-        <v>10</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="H12" s="45" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="83">
-      <c r="B13" s="10">
-        <v>11</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="H13" s="45" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="83">
-      <c r="B14" s="13">
-        <v>12</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="H14" s="45" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="83">
-      <c r="B15" s="10">
-        <v>13</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="H15" s="45" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="96">
-      <c r="B16" s="13">
-        <v>14</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="H16" s="45" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="44">
-      <c r="B17" s="10">
-        <v>15</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="H17" s="45" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="83">
-      <c r="B18" s="13">
-        <v>16</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="H18" s="47" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="83">
-      <c r="B19" s="10">
-        <v>17</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="H19" s="47" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="83">
-      <c r="B20" s="13">
-        <v>18</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="H20" s="47" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="83">
-      <c r="B21" s="10">
-        <v>19</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="H21" s="47" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="96">
-      <c r="B22" s="13">
-        <v>20</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="H22" s="47" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="57">
-      <c r="B23" s="10">
-        <v>21</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="H23" s="47" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="13">
-        <v>22</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="H24" s="47" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="10">
-        <v>23</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="H25" s="47" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="13">
-        <v>24</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="G26" s="30" t="s">
+    </row>
+    <row r="32" spans="2:8" ht="31">
+      <c r="B32" s="11">
+        <v>30</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="H26" s="47" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="10">
-        <v>25</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="30" t="s">
+      <c r="F32" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="31">
+      <c r="B33" s="13">
+        <v>31</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="H33" s="41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="13">
+        <v>32</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="E34" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="H27" s="47" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="13">
-        <v>26</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F28" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="G28" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="H28" s="47" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="10">
-        <v>27</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F29" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="G29" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="H29" s="47" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="13">
-        <v>28</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="G30" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="H30" s="47" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="31">
-      <c r="B31" s="10">
-        <v>29</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="F31" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="G31" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="H31" s="47" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="31">
-      <c r="B32" s="13">
-        <v>30</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="F32" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="G32" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="H32" s="47" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="32" thickBot="1">
-      <c r="B33" s="9">
-        <v>31</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G33" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="H33" s="51" t="s">
-        <v>115</v>
-      </c>
+      <c r="F34" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="H34" s="41" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="13">
+        <v>33</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="E35" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="H35" s="41" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="19" thickBot="1">
+      <c r="B36" s="8">
+        <v>34</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="E36" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="H36" s="45" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="52"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="55"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3727,8 +3385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -3751,671 +3409,671 @@
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>68</v>
+      <c r="E2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="83">
-      <c r="B3" s="39">
+      <c r="B3" s="33">
         <v>1</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="83">
+      <c r="B4" s="11">
+        <v>2</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="83">
+      <c r="B5" s="16">
+        <v>3</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="83">
+      <c r="B6" s="11">
+        <v>4</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="83">
+      <c r="B7" s="16">
+        <v>5</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="70">
+      <c r="B8" s="11">
+        <v>6</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="57">
+      <c r="B9" s="16">
+        <v>7</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="57">
+      <c r="B10" s="11">
+        <v>8</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="96">
+      <c r="B11" s="16">
+        <v>9</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="96">
+      <c r="B12" s="11">
+        <v>10</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" s="39" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="96">
+      <c r="B13" s="16">
+        <v>11</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="H13" s="39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="96">
+      <c r="B14" s="11">
+        <v>12</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="H14" s="39" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="57">
+      <c r="B15" s="16">
+        <v>13</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="H3" s="44" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="83">
-      <c r="B4" s="13">
-        <v>2</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="H4" s="45" t="s">
+      <c r="G15" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="57">
+      <c r="B16" s="11">
+        <v>14</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="57">
+      <c r="B17" s="16">
+        <v>15</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="83">
+      <c r="B18" s="11">
+        <v>16</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" s="39" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="83">
+      <c r="B19" s="16">
+        <v>17</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="83">
+      <c r="B20" s="11">
+        <v>18</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="H20" s="39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="57">
+      <c r="B21" s="16">
+        <v>19</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" s="39" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="57">
+      <c r="B22" s="11">
+        <v>20</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22" s="39" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="57">
+      <c r="B23" s="16">
+        <v>21</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="57">
+      <c r="B24" s="11">
+        <v>22</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" s="39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="57">
+      <c r="B25" s="16">
+        <v>23</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25" s="39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="57">
+      <c r="B26" s="11">
+        <v>24</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="H26" s="39" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="57">
+      <c r="B27" s="16">
+        <v>25</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="H27" s="39" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="57">
+      <c r="B28" s="11">
+        <v>26</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="H28" s="39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="57">
+      <c r="B29" s="16">
+        <v>27</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="H29" s="41" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="83">
-      <c r="B5" s="21">
-        <v>3</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="H5" s="46" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="83">
-      <c r="B6" s="13">
-        <v>4</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="H6" s="46" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="83">
-      <c r="B7" s="21">
-        <v>5</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="H7" s="46" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="70">
-      <c r="B8" s="13">
-        <v>6</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="22" t="s">
+    <row r="30" spans="2:8" ht="58" thickBot="1">
+      <c r="B30" s="13">
+        <v>28</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="H8" s="46" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="57">
-      <c r="B9" s="21">
-        <v>7</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="H9" s="46" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="57">
-      <c r="B10" s="13">
-        <v>8</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="E10" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="H10" s="46" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="96">
-      <c r="B11" s="21">
-        <v>9</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="H11" s="45" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="96">
-      <c r="B12" s="13">
-        <v>10</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="H12" s="45" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="96">
-      <c r="B13" s="21">
-        <v>11</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="H13" s="45" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="96">
-      <c r="B14" s="13">
-        <v>12</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="H14" s="45" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="57">
-      <c r="B15" s="21">
-        <v>13</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="45" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="57">
-      <c r="B16" s="13">
-        <v>14</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="G16" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16" s="45" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="57">
-      <c r="B17" s="21">
-        <v>15</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="45" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="83">
-      <c r="B18" s="13">
-        <v>16</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="H18" s="45" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="83">
-      <c r="B19" s="21">
-        <v>17</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="H19" s="45" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="83">
-      <c r="B20" s="13">
-        <v>18</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="H20" s="45" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="57">
-      <c r="B21" s="21">
-        <v>19</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="E21" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="H21" s="45" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="57">
-      <c r="B22" s="13">
-        <v>20</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="H22" s="45" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="57">
-      <c r="B23" s="21">
-        <v>21</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="H23" s="45" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="57">
-      <c r="B24" s="13">
-        <v>22</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="H24" s="45" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="57">
-      <c r="B25" s="21">
-        <v>23</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="E25" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="F25" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="G25" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="H25" s="45" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="57">
-      <c r="B26" s="13">
-        <v>24</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="G26" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="H26" s="45" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="57">
-      <c r="B27" s="21">
-        <v>25</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="H27" s="45" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="57">
-      <c r="B28" s="13">
-        <v>26</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="F28" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="G28" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="H28" s="45" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="57">
-      <c r="B29" s="21">
+      <c r="F30" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="F29" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="G29" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="H29" s="47" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="58" thickBot="1">
-      <c r="B30" s="16">
-        <v>28</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="E30" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="F30" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="G30" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="H30" s="47" t="s">
-        <v>150</v>
+      <c r="H30" s="41" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/algieba/test/function_test.xlsx
+++ b/algieba/test/function_test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="180">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -1347,27 +1347,74 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Controller</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>status: ok</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.1.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>View</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Accounts#register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>家計簿入力フォームが表示されていること</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Controller</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>status: ok</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.1.0</t>
+    <t>支出が選択されていること</t>
+    <rPh sb="0" eb="2">
+      <t>シシュツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1379,21 +1426,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>入力欄が表示されている</t>
+    <t>入力欄が空白であること</t>
     <rPh sb="0" eb="3">
       <t>ニュウリョクラン</t>
     </rPh>
     <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>家計簿を表示するテーブルが表示されている</t>
+      <t>クウハク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿を表示するテーブルが表示されていること</t>
     <rPh sb="0" eb="3">
       <t>カケイボ</t>
     </rPh>
@@ -2539,10 +2582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H37"/>
+  <dimension ref="B1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -3299,19 +3342,19 @@
         <v>161</v>
       </c>
       <c r="D34" s="50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E34" s="50" t="s">
         <v>160</v>
       </c>
       <c r="F34" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G34" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="G34" s="25" t="s">
-        <v>164</v>
-      </c>
       <c r="H34" s="41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="2:8">
@@ -3319,55 +3362,127 @@
         <v>33</v>
       </c>
       <c r="C35" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="E35" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="H35" s="41" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="13">
+        <v>34</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="E36" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="H36" s="41" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="13">
+        <v>35</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D37" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="E37" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G37" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="H37" s="41" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="13">
+        <v>36</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D38" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="E38" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="H38" s="41" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="H39" s="41"/>
+    </row>
+    <row r="40" spans="2:8" ht="19" thickBot="1">
+      <c r="B40" s="8"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="D35" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="E35" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="F35" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="G35" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="H35" s="41" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="19" thickBot="1">
-      <c r="B36" s="8">
-        <v>34</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D36" s="51" t="s">
-        <v>162</v>
-      </c>
-      <c r="E36" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="F36" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="G36" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="H36" s="45" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8">
-      <c r="B37" s="52"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="55"/>
+      <c r="G40" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="H40" s="45"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="52"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="55"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/algieba/test/function_test.xlsx
+++ b/algieba/test/function_test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="193">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -1367,85 +1367,149 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>1.1.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Accounts#register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>View</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;form&gt;タグがあること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;input type="radio"&gt;が２つあること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;input type="text"&gt;タグが入力項目ごとにあること</t>
+    <rPh sb="22" eb="26">
+      <t>ニュウリョクコウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;input type="text"&gt;タグが未入力状態であること</t>
+    <rPh sb="22" eb="25">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;input type="radio"&gt;のうち支出が選択されていること</t>
+    <rPh sb="23" eb="25">
+      <t>シシュツ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;table width="100%"&gt;タグがあること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;table&gt;内に&lt;td&gt;種類&lt;/td&gt;があること</t>
+    <rPh sb="7" eb="8">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;table&gt;内に&lt;td&gt;日付&lt;/td&gt;があること</t>
+    <rPh sb="7" eb="8">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;table&gt;内に&lt;td&gt;内容&lt;/td&gt;があること</t>
+    <rPh sb="7" eb="8">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;table&gt;内に&lt;td&gt;カテゴリ&lt;/td&gt;があること</t>
+    <rPh sb="7" eb="8">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;table&gt;内に&lt;td&gt;金額&lt;/td&gt;があること</t>
+    <rPh sb="7" eb="8">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;tr id="append"&gt;があること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>1.1.0</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>1.1.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>View</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>View</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Accounts#register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>家計簿入力フォームが表示されていること</t>
-    <rPh sb="0" eb="3">
-      <t>カケイボ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>View</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>支出が選択されていること</t>
-    <rPh sb="0" eb="2">
-      <t>シシュツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>View</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入力欄が空白であること</t>
-    <rPh sb="0" eb="3">
-      <t>ニュウリョクラン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>クウハク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>家計簿を表示するテーブルが表示されていること</t>
-    <rPh sb="0" eb="3">
-      <t>カケイボ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウジ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1997,8 +2061,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2204,7 +2272,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="53">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -2229,6 +2297,8 @@
     <cellStyle name="ハイパーリンク" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -2254,6 +2324,8 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="52" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2582,10 +2654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H41"/>
+  <dimension ref="B1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -3362,22 +3434,22 @@
         <v>33</v>
       </c>
       <c r="C35" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D35" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="D35" s="50" t="s">
+      <c r="E35" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="E35" s="50" t="s">
+      <c r="F35" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="F35" s="25" t="s">
-        <v>171</v>
-      </c>
       <c r="G35" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H35" s="41" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="2:8">
@@ -3385,22 +3457,22 @@
         <v>34</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="D36" s="50" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="E36" s="50" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="H36" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="2:8">
@@ -3408,22 +3480,22 @@
         <v>35</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D37" s="50" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E37" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="G37" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="F37" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="G37" s="25" t="s">
-        <v>171</v>
-      </c>
       <c r="H37" s="41" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="2:8">
@@ -3431,58 +3503,216 @@
         <v>36</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D38" s="50" t="s">
         <v>173</v>
       </c>
       <c r="E38" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="G38" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="F38" s="25" t="s">
+      <c r="H38" s="41" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="13">
+        <v>37</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D39" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="G38" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="H38" s="41" t="s">
+      <c r="E39" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="H39" s="41" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="39" spans="2:8">
-      <c r="B39" s="13"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="25" t="s">
+    <row r="40" spans="2:8">
+      <c r="B40" s="13">
+        <v>38</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D40" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="E40" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="G39" s="25" t="s">
+      <c r="H40" s="41" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="13">
+        <v>39</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D41" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="E41" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="G41" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="H41" s="41" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="13">
+        <v>40</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D42" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="E42" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="G42" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="H42" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="13">
+        <v>41</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D43" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="E43" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="G43" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="H43" s="41" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="13">
+        <v>42</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D44" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="E44" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="H44" s="41" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="13">
+        <v>43</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="D45" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="E45" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="G45" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="H45" s="41" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="19" thickBot="1">
+      <c r="B46" s="8">
+        <v>44</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D46" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="E46" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G46" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="H39" s="41"/>
-    </row>
-    <row r="40" spans="2:8" ht="19" thickBot="1">
-      <c r="B40" s="8"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="G40" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="H40" s="45"/>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="B41" s="52"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="55"/>
+      <c r="H46" s="45" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="52"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="55"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/algieba/test/function_test.xlsx
+++ b/algieba/test/function_test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="214">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -1506,6 +1506,96 @@
   {error_code: 'invalid_param_date_after'},
   {error_code: 'invalid_param_price_upper'}
 ]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.1.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Accounts_Controller#manage</t>
+  </si>
+  <si>
+    <t>Accounts_Controller#manage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.1.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Accounts_Controller#manage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿が50件表示されていること</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページング用ボタンが表示されていること</t>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページング用ボタンが表示されていないこと</t>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録されている家計簿が1件</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録されている家計簿が1000件</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>カケイボ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ケン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1562,7 +1652,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -2003,6 +2093,19 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -2091,7 +2194,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2230,12 +2333,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2259,6 +2356,59 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="83">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -2672,10 +2822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H44"/>
+  <dimension ref="B1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2748,7 +2898,7 @@
       <c r="F4" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="59" t="s">
         <v>88</v>
       </c>
       <c r="H4" s="31" t="s">
@@ -2771,7 +2921,7 @@
       <c r="F5" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="50"/>
+      <c r="G5" s="60"/>
       <c r="H5" s="31" t="s">
         <v>65</v>
       </c>
@@ -2792,7 +2942,7 @@
       <c r="F6" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="50"/>
+      <c r="G6" s="60"/>
       <c r="H6" s="31" t="s">
         <v>66</v>
       </c>
@@ -2813,7 +2963,7 @@
       <c r="F7" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="50"/>
+      <c r="G7" s="60"/>
       <c r="H7" s="31" t="s">
         <v>67</v>
       </c>
@@ -2834,7 +2984,7 @@
       <c r="F8" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="50"/>
+      <c r="G8" s="60"/>
       <c r="H8" s="31" t="s">
         <v>68</v>
       </c>
@@ -2855,7 +3005,7 @@
       <c r="F9" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="50"/>
+      <c r="G9" s="60"/>
       <c r="H9" s="31" t="s">
         <v>69</v>
       </c>
@@ -2876,7 +3026,7 @@
       <c r="F10" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="50"/>
+      <c r="G10" s="60"/>
       <c r="H10" s="31" t="s">
         <v>70</v>
       </c>
@@ -2897,7 +3047,7 @@
       <c r="F11" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="50"/>
+      <c r="G11" s="60"/>
       <c r="H11" s="31" t="s">
         <v>71</v>
       </c>
@@ -2918,7 +3068,7 @@
       <c r="F12" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="50"/>
+      <c r="G12" s="60"/>
       <c r="H12" s="33" t="s">
         <v>72</v>
       </c>
@@ -2939,7 +3089,7 @@
       <c r="F13" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="50"/>
+      <c r="G13" s="60"/>
       <c r="H13" s="33" t="s">
         <v>73</v>
       </c>
@@ -2960,7 +3110,7 @@
       <c r="F14" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="50"/>
+      <c r="G14" s="60"/>
       <c r="H14" s="33" t="s">
         <v>74</v>
       </c>
@@ -2981,7 +3131,7 @@
       <c r="F15" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="50"/>
+      <c r="G15" s="60"/>
       <c r="H15" s="33" t="s">
         <v>76</v>
       </c>
@@ -3002,7 +3152,7 @@
       <c r="F16" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="50"/>
+      <c r="G16" s="60"/>
       <c r="H16" s="33" t="s">
         <v>82</v>
       </c>
@@ -3023,7 +3173,7 @@
       <c r="F17" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="50"/>
+      <c r="G17" s="60"/>
       <c r="H17" s="33" t="s">
         <v>81</v>
       </c>
@@ -3044,7 +3194,7 @@
       <c r="F18" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="G18" s="51"/>
+      <c r="G18" s="61"/>
       <c r="H18" s="33" t="s">
         <v>83</v>
       </c>
@@ -3290,7 +3440,7 @@
         <v>48</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>129</v>
+        <v>204</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>44</v>
@@ -3364,7 +3514,7 @@
       <c r="F32" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="G32" s="52" t="s">
+      <c r="G32" s="62" t="s">
         <v>106</v>
       </c>
       <c r="H32" s="31" t="s">
@@ -3387,7 +3537,7 @@
       <c r="F33" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="G33" s="53"/>
+      <c r="G33" s="63"/>
       <c r="H33" s="45" t="s">
         <v>107</v>
       </c>
@@ -3408,7 +3558,7 @@
       <c r="F34" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="G34" s="53"/>
+      <c r="G34" s="63"/>
       <c r="H34" s="45" t="s">
         <v>108</v>
       </c>
@@ -3429,7 +3579,7 @@
       <c r="F35" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="G35" s="53"/>
+      <c r="G35" s="63"/>
       <c r="H35" s="45" t="s">
         <v>107</v>
       </c>
@@ -3450,7 +3600,7 @@
       <c r="F36" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="G36" s="53"/>
+      <c r="G36" s="63"/>
       <c r="H36" s="45" t="s">
         <v>109</v>
       </c>
@@ -3471,7 +3621,7 @@
       <c r="F37" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="G37" s="53"/>
+      <c r="G37" s="63"/>
       <c r="H37" s="45" t="s">
         <v>109</v>
       </c>
@@ -3492,7 +3642,7 @@
       <c r="F38" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="G38" s="53"/>
+      <c r="G38" s="63"/>
       <c r="H38" s="45" t="s">
         <v>109</v>
       </c>
@@ -3513,7 +3663,7 @@
       <c r="F39" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="G39" s="53"/>
+      <c r="G39" s="63"/>
       <c r="H39" s="45" t="s">
         <v>108</v>
       </c>
@@ -3534,7 +3684,7 @@
       <c r="F40" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="G40" s="53"/>
+      <c r="G40" s="63"/>
       <c r="H40" s="45" t="s">
         <v>108</v>
       </c>
@@ -3555,7 +3705,7 @@
       <c r="F41" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="G41" s="53"/>
+      <c r="G41" s="63"/>
       <c r="H41" s="45" t="s">
         <v>107</v>
       </c>
@@ -3576,7 +3726,7 @@
       <c r="F42" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="G42" s="53"/>
+      <c r="G42" s="63"/>
       <c r="H42" s="45" t="s">
         <v>108</v>
       </c>
@@ -3597,30 +3747,120 @@
       <c r="F43" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="G43" s="53"/>
+      <c r="G43" s="63"/>
       <c r="H43" s="45" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="2:8" ht="253" thickBot="1">
-      <c r="B44" s="7">
+    <row r="44" spans="2:8" ht="252">
+      <c r="B44" s="64">
         <v>42</v>
       </c>
-      <c r="C44" s="43" t="s">
+      <c r="C44" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="44" t="s">
+      <c r="D44" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E44" s="44" t="s">
+      <c r="E44" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="F44" s="47" t="s">
+      <c r="F44" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="G44" s="54"/>
-      <c r="H44" s="48" t="s">
+      <c r="G44" s="67"/>
+      <c r="H44" s="68" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="9">
+        <v>43</v>
+      </c>
+      <c r="C45" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E45" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="F45" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="G45" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="H45" s="69"/>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="64">
+        <v>44</v>
+      </c>
+      <c r="C46" s="72" t="s">
+        <v>206</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="E46" s="76" t="s">
+        <v>208</v>
+      </c>
+      <c r="F46" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="G46" s="73" t="s">
+        <v>212</v>
+      </c>
+      <c r="H46" s="77" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="64">
+        <v>45</v>
+      </c>
+      <c r="C47" s="72" t="s">
+        <v>206</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="F47" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="G47" s="73" t="s">
+        <v>213</v>
+      </c>
+      <c r="H47" s="74" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="19" thickBot="1">
+      <c r="B48" s="7">
+        <v>46</v>
+      </c>
+      <c r="C48" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="D48" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="E48" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="F48" s="71" t="s">
+        <v>205</v>
+      </c>
+      <c r="G48" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="H48" s="75" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -4092,7 +4332,7 @@
       <c r="E22" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="F22" s="55" t="s">
+      <c r="F22" s="53" t="s">
         <v>159</v>
       </c>
       <c r="G22" s="24"/>
@@ -4125,19 +4365,19 @@
       <c r="B24" s="9">
         <v>22</v>
       </c>
-      <c r="C24" s="56" t="s">
+      <c r="C24" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="D24" s="57" t="s">
+      <c r="D24" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="E24" s="57" t="s">
+      <c r="E24" s="55" t="s">
         <v>162</v>
       </c>
       <c r="F24" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="G24" s="58"/>
+      <c r="G24" s="56"/>
       <c r="H24" s="45" t="s">
         <v>193</v>
       </c>
@@ -4146,7 +4386,7 @@
       <c r="B25" s="9">
         <v>23</v>
       </c>
-      <c r="C25" s="56" t="s">
+      <c r="C25" s="54" t="s">
         <v>176</v>
       </c>
       <c r="D25" s="42" t="s">
@@ -4158,7 +4398,7 @@
       <c r="F25" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="G25" s="58"/>
+      <c r="G25" s="56"/>
       <c r="H25" s="45" t="s">
         <v>194</v>
       </c>
@@ -4167,7 +4407,7 @@
       <c r="B26" s="9">
         <v>24</v>
       </c>
-      <c r="C26" s="56" t="s">
+      <c r="C26" s="54" t="s">
         <v>176</v>
       </c>
       <c r="D26" s="42" t="s">
@@ -4179,7 +4419,7 @@
       <c r="F26" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="G26" s="58"/>
+      <c r="G26" s="56"/>
       <c r="H26" s="45" t="s">
         <v>194</v>
       </c>
@@ -4188,7 +4428,7 @@
       <c r="B27" s="9">
         <v>25</v>
       </c>
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="54" t="s">
         <v>176</v>
       </c>
       <c r="D27" s="42" t="s">
@@ -4200,7 +4440,7 @@
       <c r="F27" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="G27" s="58"/>
+      <c r="G27" s="56"/>
       <c r="H27" s="45" t="s">
         <v>195</v>
       </c>
@@ -4209,7 +4449,7 @@
       <c r="B28" s="9">
         <v>26</v>
       </c>
-      <c r="C28" s="56" t="s">
+      <c r="C28" s="54" t="s">
         <v>176</v>
       </c>
       <c r="D28" s="42" t="s">
@@ -4221,7 +4461,7 @@
       <c r="F28" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="G28" s="58"/>
+      <c r="G28" s="56"/>
       <c r="H28" s="45" t="s">
         <v>196</v>
       </c>
@@ -4230,7 +4470,7 @@
       <c r="B29" s="9">
         <v>27</v>
       </c>
-      <c r="C29" s="56" t="s">
+      <c r="C29" s="54" t="s">
         <v>176</v>
       </c>
       <c r="D29" s="42" t="s">
@@ -4242,7 +4482,7 @@
       <c r="F29" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="G29" s="58"/>
+      <c r="G29" s="56"/>
       <c r="H29" s="45" t="s">
         <v>196</v>
       </c>
@@ -4251,7 +4491,7 @@
       <c r="B30" s="9">
         <v>28</v>
       </c>
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="54" t="s">
         <v>176</v>
       </c>
       <c r="D30" s="42" t="s">
@@ -4263,7 +4503,7 @@
       <c r="F30" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="G30" s="58"/>
+      <c r="G30" s="56"/>
       <c r="H30" s="45" t="s">
         <v>197</v>
       </c>
@@ -4272,19 +4512,19 @@
       <c r="B31" s="9">
         <v>29</v>
       </c>
-      <c r="C31" s="56" t="s">
+      <c r="C31" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="D31" s="57" t="s">
+      <c r="D31" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="E31" s="57" t="s">
+      <c r="E31" s="55" t="s">
         <v>164</v>
       </c>
       <c r="F31" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="G31" s="58"/>
+      <c r="G31" s="56"/>
       <c r="H31" s="45" t="s">
         <v>198</v>
       </c>
@@ -4293,19 +4533,19 @@
       <c r="B32" s="9">
         <v>30</v>
       </c>
-      <c r="C32" s="56" t="s">
+      <c r="C32" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="D32" s="57" t="s">
+      <c r="D32" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="E32" s="57" t="s">
+      <c r="E32" s="55" t="s">
         <v>164</v>
       </c>
       <c r="F32" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="G32" s="58"/>
+      <c r="G32" s="56"/>
       <c r="H32" s="45" t="s">
         <v>199</v>
       </c>
@@ -4317,16 +4557,16 @@
       <c r="C33" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="D33" s="59" t="s">
+      <c r="D33" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="E33" s="59" t="s">
+      <c r="E33" s="57" t="s">
         <v>164</v>
       </c>
       <c r="F33" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="G33" s="60"/>
+      <c r="G33" s="58"/>
       <c r="H33" s="48" t="s">
         <v>200</v>
       </c>
